--- a/Experiment 01/excel/sort_analysis.xlsx
+++ b/Experiment 01/excel/sort_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tejas\clg\sem4\daa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spitindia-my.sharepoint.com/personal/tejas_jadhav22_spit_ac_in/Documents/clg/daa/Experiment 01/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B8D093A5-9988-4506-9696-B5B78E5073C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{B8D093A5-9988-4506-9696-B5B78E5073C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB2E10DF-8E7B-4C4F-9306-3738CD20B9C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sort_time" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,17 +559,9 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="0"/>
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -18892,8 +18884,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.46659570551418628"/>
-              <c:y val="0.86793666920667167"/>
+              <c:x val="0.46659565784365448"/>
+              <c:y val="0.82692255749910459"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -20063,18 +20055,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="2" sqref="A1:A1048576 B1:B1048576 C1:C1048576"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
